--- a/project-docs/tasklists/BenWilletts_260610719_tasklist.xlsx
+++ b/project-docs/tasklists/BenWilletts_260610719_tasklist.xlsx
@@ -444,7 +444,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -647,6 +647,12 @@
       <c r="D10" s="4">
         <v>43552</v>
       </c>
+      <c r="E10" s="4">
+        <v>43555</v>
+      </c>
+      <c r="F10" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -657,6 +663,12 @@
       </c>
       <c r="D11" s="4">
         <v>43552</v>
+      </c>
+      <c r="E11" s="4">
+        <v>43555</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
